--- a/DataBase/資料庫建立檢表0808.xlsx
+++ b/DataBase/資料庫建立檢表0808.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADE312F-488D-4A50-851B-1FE2A4215C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D28D9C4-F048-4EAE-ABC4-BE9939FA09E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="451">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2007,7 +2007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2041,6 +2041,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,7 +2227,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,16 +2462,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2489,6 +2513,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2496,9 +2535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2512,27 +2548,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2904,14 +2919,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="96"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -3139,8 +3154,8 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3252,12 +3267,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
@@ -3281,10 +3296,10 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
@@ -3310,10 +3325,10 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
@@ -3401,20 +3416,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3659,8 +3674,8 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
@@ -3888,8 +3903,8 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
@@ -4028,21 +4043,21 @@
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P38" s="86" t="s">
+      <c r="P38" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
+      <c r="S38" s="93"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P39" s="86"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
@@ -4066,21 +4081,21 @@
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
+      <c r="R41" s="97"/>
+      <c r="S41" s="97"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78" t="s">
+      <c r="B42" s="96"/>
+      <c r="C42" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="78"/>
+      <c r="D42" s="96"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4416,8 +4431,8 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="80"/>
-      <c r="S50" s="80"/>
+      <c r="R50" s="97"/>
+      <c r="S50" s="97"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
@@ -4744,14 +4759,14 @@
       <c r="V61" s="63"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78" t="s">
+      <c r="B62" s="96"/>
+      <c r="C62" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="78"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -5298,14 +5313,14 @@
       <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78" t="s">
+      <c r="B86" s="96"/>
+      <c r="C86" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="78"/>
+      <c r="D86" s="96"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5570,14 +5585,14 @@
       <c r="L96" s="2"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="78" t="s">
+      <c r="A100" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="78"/>
-      <c r="C100" s="78" t="s">
+      <c r="B100" s="96"/>
+      <c r="C100" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="78"/>
+      <c r="D100" s="96"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5860,14 +5875,14 @@
       <c r="L111" s="2"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="78" t="s">
+      <c r="A115" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78" t="s">
+      <c r="B115" s="96"/>
+      <c r="C115" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="78"/>
+      <c r="D115" s="96"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -6221,14 +6236,14 @@
       <c r="T128" s="19"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="78" t="s">
+      <c r="A131" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="78"/>
-      <c r="C131" s="78" t="s">
+      <c r="B131" s="96"/>
+      <c r="C131" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="78"/>
+      <c r="D131" s="96"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6475,14 +6490,14 @@
       <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="78" t="s">
+      <c r="A144" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="78"/>
-      <c r="C144" s="78" t="s">
+      <c r="B144" s="96"/>
+      <c r="C144" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="78"/>
+      <c r="D144" s="96"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6667,14 +6682,14 @@
       <c r="L151" s="2"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="78" t="s">
+      <c r="A155" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="78"/>
-      <c r="C155" s="78" t="s">
+      <c r="B155" s="96"/>
+      <c r="C155" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="78"/>
+      <c r="D155" s="96"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6803,14 +6818,14 @@
       <c r="U161"/>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="78" t="s">
+      <c r="A162" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="78"/>
-      <c r="C162" s="78" t="s">
+      <c r="B162" s="96"/>
+      <c r="C162" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="78"/>
+      <c r="D162" s="96"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6934,20 +6949,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6964,6 +6965,20 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6982,283 +6997,275 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="99"/>
+      <c r="E1" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="H1" s="91" t="s">
+      <c r="F1" s="99"/>
+      <c r="H1" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="K1" s="91" t="s">
+      <c r="I1" s="102"/>
+      <c r="K1" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="N1" s="92" t="s">
+      <c r="L1" s="102"/>
+      <c r="N1" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="92"/>
+      <c r="O1" s="99"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="E2" s="89" t="s">
+      <c r="C2" s="101"/>
+      <c r="E2" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="H2" s="89" t="s">
+      <c r="F2" s="101"/>
+      <c r="H2" s="100" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="K2" s="89" t="s">
+      <c r="I2" s="101"/>
+      <c r="K2" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="90"/>
-      <c r="N2" s="89" t="s">
+      <c r="L2" s="101"/>
+      <c r="N2" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="90"/>
+      <c r="O2" s="101"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="99" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="E11" s="92" t="s">
+      <c r="C11" s="99"/>
+      <c r="E11" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="H11" s="91" t="s">
+      <c r="F11" s="99"/>
+      <c r="H11" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="91"/>
-      <c r="K11" s="91" t="s">
+      <c r="I11" s="102"/>
+      <c r="K11" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="N11" s="92" t="s">
+      <c r="L11" s="102"/>
+      <c r="N11" s="99" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="92"/>
+      <c r="O11" s="99"/>
     </row>
     <row r="12" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="E12" s="89" t="s">
+      <c r="C12" s="101"/>
+      <c r="E12" s="100" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="H12" s="89" t="s">
+      <c r="F12" s="101"/>
+      <c r="H12" s="100" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="90"/>
-      <c r="K12" s="89" t="s">
+      <c r="I12" s="101"/>
+      <c r="K12" s="100" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="N12" s="89" t="s">
+      <c r="L12" s="101"/>
+      <c r="N12" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="90"/>
+      <c r="O12" s="101"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="101"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="101"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="92"/>
+      <c r="F21" s="99"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="100" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="101"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7273,6 +7280,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7314,14 +7329,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="96"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7494,14 +7509,14 @@
       <c r="J11" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7670,14 +7685,14 @@
       <c r="J25" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78" t="s">
+      <c r="B30" s="96"/>
+      <c r="C30" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="96"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7798,14 +7813,14 @@
       <c r="J36" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78" t="s">
+      <c r="B41" s="96"/>
+      <c r="C41" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="78"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7974,14 +7989,14 @@
       <c r="J50" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78" t="s">
+      <c r="B55" s="96"/>
+      <c r="C55" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="78"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -8102,14 +8117,14 @@
       <c r="J61" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="78" t="s">
+      <c r="A66" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78" t="s">
+      <c r="B66" s="96"/>
+      <c r="C66" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="78"/>
+      <c r="D66" s="96"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -8230,14 +8245,14 @@
       <c r="J72" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="78" t="s">
+      <c r="A77" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78" t="s">
+      <c r="B77" s="96"/>
+      <c r="C77" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="78"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8406,14 +8421,14 @@
       <c r="J86" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="78" t="s">
+      <c r="A91" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78" t="s">
+      <c r="B91" s="96"/>
+      <c r="C91" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="78"/>
+      <c r="D91" s="96"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8598,14 +8613,14 @@
       <c r="J101" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="78" t="s">
+      <c r="A106" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="78" t="s">
+      <c r="B106" s="96"/>
+      <c r="C106" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="78"/>
+      <c r="D106" s="96"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8678,14 +8693,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="78" t="s">
+      <c r="A114" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="78"/>
-      <c r="C114" s="78" t="s">
+      <c r="B114" s="96"/>
+      <c r="C114" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="78"/>
+      <c r="D114" s="96"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8758,14 +8773,14 @@
       <c r="J117" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="78" t="s">
+      <c r="A122" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="78"/>
-      <c r="C122" s="78" t="s">
+      <c r="B122" s="96"/>
+      <c r="C122" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="78"/>
+      <c r="D122" s="96"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8903,18 +8918,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8925,6 +8928,18 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8939,8 +8954,8 @@
   </sheetPr>
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8968,14 +8983,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="96"/>
+      <c r="D1" s="106"/>
       <c r="E1" s="64"/>
       <c r="F1" s="74"/>
       <c r="G1" s="74"/>
@@ -9035,7 +9050,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2">
         <v>11</v>
@@ -9153,7 +9168,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="79" t="s">
         <v>352</v>
       </c>
       <c r="K7" s="10"/>
@@ -9181,7 +9196,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="98"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="10"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
@@ -9235,8 +9250,8 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
       <c r="U10" s="19"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -9352,12 +9367,12 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="82" t="s">
+      <c r="P14" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="48"/>
@@ -9381,10 +9396,10 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="49"/>
@@ -9410,10 +9425,10 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="2"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+      <c r="S16" s="91"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
@@ -9501,20 +9516,20 @@
       <c r="R20" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="93" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="103" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="94"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="64"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
@@ -9637,8 +9652,8 @@
         <v>364</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>179</v>
+      <c r="D24" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E24" s="2">
         <v>11</v>
@@ -9708,8 +9723,8 @@
       <c r="C26" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>174</v>
+      <c r="D26" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E26" s="2">
         <v>11</v>
@@ -9938,8 +9953,8 @@
       <c r="R32" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
@@ -10045,12 +10060,12 @@
       <c r="V35" s="49"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="P36" s="86" t="s">
+      <c r="P36" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
@@ -10060,21 +10075,21 @@
       <c r="Q37" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="95" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="96"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="64"/>
       <c r="F38" s="74"/>
       <c r="G38" s="74"/>
@@ -10200,11 +10215,11 @@
       <c r="B41" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>179</v>
+      <c r="D41" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E41" s="2">
         <v>11</v>
@@ -10221,7 +10236,7 @@
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="102" t="s">
+      <c r="L41" s="83" t="s">
         <v>183</v>
       </c>
       <c r="P41" s="50"/>
@@ -10330,11 +10345,11 @@
       <c r="B44" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C44" s="99" t="s">
+      <c r="C44" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>392</v>
+      <c r="D44" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E44" s="2">
         <v>11</v>
@@ -10363,7 +10378,7 @@
       <c r="B45" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="81" t="s">
         <v>329</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -10380,7 +10395,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="101" t="s">
+      <c r="L45" s="82" t="s">
         <v>410</v>
       </c>
       <c r="O45" s="32">
@@ -10403,10 +10418,10 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="E46" s="16">
+        <v>8</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
@@ -10432,7 +10447,7 @@
       <c r="B47" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C47" s="100" t="s">
+      <c r="C47" s="81" t="s">
         <v>404</v>
       </c>
       <c r="D47" s="22" t="s">
@@ -10476,7 +10491,7 @@
         <v>180</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
@@ -10519,7 +10534,7 @@
         <v>180</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -10588,30 +10603,30 @@
       <c r="V50" s="49"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="85" t="s">
         <v>366</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="86">
         <v>11</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
+      <c r="F51" s="87"/>
+      <c r="G51" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="17" t="s">
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="86" t="s">
         <v>194</v>
       </c>
       <c r="P51" s="50"/>
@@ -10672,14 +10687,14 @@
       <c r="V54" s="63"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="78"/>
-      <c r="C55" s="95" t="s">
+      <c r="B55" s="96"/>
+      <c r="C55" s="105" t="s">
         <v>249</v>
       </c>
-      <c r="D55" s="96"/>
+      <c r="D55" s="106"/>
       <c r="E55" s="64"/>
       <c r="F55" s="74"/>
       <c r="G55" s="74"/>
@@ -10773,11 +10788,11 @@
       <c r="B58" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>179</v>
+      <c r="D58" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E58" s="2">
         <v>11</v>
@@ -10794,7 +10809,7 @@
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
-      <c r="L58" s="102" t="s">
+      <c r="L58" s="83" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10858,11 +10873,11 @@
       <c r="B61" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>392</v>
+      <c r="D61" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E61" s="2">
         <v>11</v>
@@ -10887,7 +10902,7 @@
       <c r="B62" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C62" s="100" t="s">
+      <c r="C62" s="81" t="s">
         <v>329</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -10904,7 +10919,7 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
-      <c r="L62" s="101" t="s">
+      <c r="L62" s="82" t="s">
         <v>440</v>
       </c>
       <c r="O62" s="32">
@@ -10972,11 +10987,11 @@
       <c r="C65" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>184</v>
+      <c r="D65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="18">
+        <v>8</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
@@ -11006,7 +11021,7 @@
         <v>180</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
@@ -11097,7 +11112,7 @@
         <v>180</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -11123,7 +11138,7 @@
       <c r="D70" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="16" t="s">
         <v>214</v>
       </c>
       <c r="F70" s="10"/>
@@ -11139,30 +11154,30 @@
       <c r="U70" s="13"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="85" t="s">
         <v>413</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="86">
         <v>11</v>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10" t="s">
+      <c r="F71" s="87"/>
+      <c r="G71" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="17" t="s">
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="86" t="s">
         <v>196</v>
       </c>
       <c r="P71" s="13"/>
@@ -11210,14 +11225,14 @@
       <c r="U75"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="78" t="s">
+      <c r="A76" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="78"/>
-      <c r="C76" s="95" t="s">
+      <c r="B76" s="96"/>
+      <c r="C76" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="96"/>
+      <c r="D76" s="106"/>
       <c r="E76" s="64"/>
       <c r="F76" s="74"/>
       <c r="G76" s="74"/>
@@ -11358,7 +11373,7 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>214</v>
@@ -11502,8 +11517,8 @@
       <c r="C87" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>392</v>
+      <c r="D87" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E87" s="2">
         <v>11</v>
@@ -11521,14 +11536,14 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="78"/>
-      <c r="C90" s="95" t="s">
+      <c r="B90" s="96"/>
+      <c r="C90" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="D90" s="96"/>
+      <c r="D90" s="106"/>
       <c r="E90" s="64"/>
       <c r="F90" s="74"/>
       <c r="G90" s="74"/>
@@ -11697,7 +11712,7 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>214</v>
@@ -11837,7 +11852,7 @@
         <v>400</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="E102" s="2">
         <v>11</v>
@@ -11861,14 +11876,14 @@
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="78" t="s">
+      <c r="A105" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="93" t="s">
+      <c r="B105" s="96"/>
+      <c r="C105" s="103" t="s">
         <v>348</v>
       </c>
-      <c r="D105" s="94"/>
+      <c r="D105" s="104"/>
       <c r="E105" s="64"/>
       <c r="F105" s="74"/>
       <c r="G105" s="74"/>
@@ -11955,8 +11970,8 @@
       <c r="C108" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>179</v>
+      <c r="D108" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E108" s="2">
         <v>10</v>
@@ -12021,13 +12036,13 @@
       <c r="U109"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" s="103" t="s">
+      <c r="A110" s="84" t="s">
         <v>263</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C110" s="103" t="s">
+      <c r="C110" s="84" t="s">
         <v>265</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -12170,8 +12185,8 @@
       <c r="C115" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>174</v>
+      <c r="D115" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E115" s="2">
         <v>11</v>
@@ -12198,14 +12213,14 @@
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="78" t="s">
+      <c r="A118" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="78"/>
-      <c r="C118" s="95" t="s">
+      <c r="B118" s="96"/>
+      <c r="C118" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="96"/>
+      <c r="D118" s="106"/>
       <c r="E118" s="64"/>
       <c r="F118" s="74"/>
       <c r="G118" s="74"/>
@@ -12266,7 +12281,7 @@
         <v>291</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E120" s="2">
         <v>11</v>
@@ -12292,7 +12307,7 @@
         <v>190</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E121" s="2">
         <v>11</v>
@@ -12524,14 +12539,14 @@
       <c r="P133" s="13"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A134" s="78" t="s">
+      <c r="A134" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="78"/>
-      <c r="C134" s="95" t="s">
+      <c r="B134" s="96"/>
+      <c r="C134" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="D134" s="96"/>
+      <c r="D134" s="106"/>
       <c r="E134" s="64"/>
       <c r="F134" s="74"/>
       <c r="G134" s="74"/>
@@ -12591,8 +12606,8 @@
         <v>450</v>
       </c>
       <c r="C136" s="2"/>
-      <c r="D136" s="2" t="s">
-        <v>174</v>
+      <c r="D136" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E136" s="2">
         <v>11</v>
@@ -12670,8 +12685,8 @@
       <c r="C139" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>174</v>
+      <c r="D139" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E139" s="2">
         <v>11</v>
@@ -12721,10 +12736,10 @@
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>188</v>
+        <v>174</v>
+      </c>
+      <c r="E141" s="16">
+        <v>14</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -12785,14 +12800,14 @@
       <c r="A145" s="70"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="78" t="s">
+      <c r="A147" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="78"/>
-      <c r="C147" s="95" t="s">
+      <c r="B147" s="96"/>
+      <c r="C147" s="105" t="s">
         <v>387</v>
       </c>
-      <c r="D147" s="96"/>
+      <c r="D147" s="106"/>
       <c r="E147" s="64"/>
       <c r="F147" s="74"/>
       <c r="G147" s="74"/>
@@ -12945,14 +12960,14 @@
       <c r="U153" s="13"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="78" t="s">
+      <c r="A154" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="78"/>
-      <c r="C154" s="93" t="s">
+      <c r="B154" s="96"/>
+      <c r="C154" s="103" t="s">
         <v>386</v>
       </c>
-      <c r="D154" s="94"/>
+      <c r="D154" s="104"/>
       <c r="E154" s="64"/>
       <c r="F154" s="74"/>
       <c r="G154" s="74"/>
@@ -13010,8 +13025,8 @@
         <v>391</v>
       </c>
       <c r="C156" s="2"/>
-      <c r="D156" s="2" t="s">
-        <v>392</v>
+      <c r="D156" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E156" s="2">
         <v>11</v>
@@ -13179,7 +13194,7 @@
       <c r="B163" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="97" t="s">
+      <c r="C163" s="78" t="s">
         <v>388</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -13220,13 +13235,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="P14:S16"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="S32:T32"/>
@@ -13238,16 +13256,13 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="P14:S16"/>
+    <mergeCell ref="S20:T20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
